--- a/src/test/resources/exceldata.xlsx
+++ b/src/test/resources/exceldata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arvin\eclipse-workspace\selenium_learning\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7788146-6F0C-42CC-9636-D823E32589B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F0E61E-88E4-4CCB-AA27-BC74A49DA81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -892,7 +892,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
